--- a/C部分接口说明.xlsx
+++ b/C部分接口说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\WeLink\appdata\IM\qzwangr_495@isoftstone\DownloadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a\WatermelonDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FC1C5-1CD1-495A-ABC5-CCE9FDD45EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BC9A95-774B-428F-8041-8FBB5968CC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="23955" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -473,9 +471,6 @@
     <t>执行复杂条件查询，返回匹配的记录数组</t>
   </si>
   <si>
-    <t>table (string)：数据表名称；query (string)：WHERE 子句等查询条件；arguments (Array)：SQL 查询参数数组</t>
-  </si>
-  <si>
     <t>jsi::Array：包含所有匹配记录的数组（每个元素是记录对象）</t>
   </si>
   <si>
@@ -646,9 +641,6 @@
     <t>需要数组格式查询结果的前端数据处理场景</t>
   </si>
   <si>
-    <t>queryIds()</t>
-  </si>
-  <si>
     <t>执行指定 SQL 查询，返回查询结果的第一列值数组（通常为 ID 列表）</t>
   </si>
   <si>
@@ -979,12 +971,6 @@
     <t>batch()</t>
   </si>
   <si>
-    <t>执行批量数据库操作，支持事务保护保证操作原子性</t>
-  </si>
-  <si>
-    <t>operations (array)：包含多个数据库操作的对象数组</t>
-  </si>
-  <si>
     <t>jsi::Object：含 code、message、operationsCompleted（完成操作数量）</t>
   </si>
   <si>
@@ -1034,9 +1020,6 @@
   </si>
   <si>
     <t>数据同步、备份恢复和数据迁移场景</t>
-  </si>
-  <si>
-    <t>unsafeExecuteMultiple()</t>
   </si>
   <si>
     <t>一次性执行多个 SQL 语句</t>
@@ -1379,6 +1362,126 @@
   </si>
   <si>
     <t>setUpWithSchema()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>operations (array)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：包含多个数据库操作的对象数组</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>table (string)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：数据表名称；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>query (string)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子句等查询条件；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>arguments (Array)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询参数数组</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryIds()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsafeExecuteMultiple()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行批量数据库操作，支持事务保护保证操作原子性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,8 +1522,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1436,6 +1545,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,6 +1601,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1964,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1999,7 +2129,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="224.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2019,14 +2149,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>99</v>
+      <c r="A3" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -2059,7 +2189,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2086,133 +2216,133 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="155.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="172.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="69" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>21</v>
@@ -2220,39 +2350,39 @@
     </row>
     <row r="13" spans="1:6" ht="69" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>21</v>
@@ -2260,39 +2390,39 @@
     </row>
     <row r="15" spans="1:6" ht="69" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
+      <c r="A16" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
@@ -2300,19 +2430,19 @@
     </row>
     <row r="17" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -2320,22 +2450,22 @@
     </row>
     <row r="18" spans="1:6" ht="120.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
